--- a/lab5/masterDirectory/abilities.xlsx
+++ b/lab5/masterDirectory/abilities.xlsx
@@ -14,604 +14,604 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
-    <t>Dr. Conchita Schuster</t>
-  </si>
-  <si>
-    <t>Event Planning,Research Skills,Interpersonal Skills</t>
-  </si>
-  <si>
-    <t>Miss Wendolyn Conn</t>
-  </si>
-  <si>
-    <t>Cryptocurrency,Game Design,Public Speaking</t>
-  </si>
-  <si>
-    <t>Dr. Rolanda Howell</t>
-  </si>
-  <si>
-    <t>Language Teaching,Time Management,Cooking</t>
-  </si>
-  <si>
-    <t>Maximo Crist Sr.</t>
-  </si>
-  <si>
-    <t>Personal Training,Copywriting,Marketing Skills</t>
-  </si>
-  <si>
-    <t>Roman Bruen DDS</t>
-  </si>
-  <si>
-    <t>Personal Training,Project Management,Renewable Energy</t>
-  </si>
-  <si>
-    <t>Alecia Quigley</t>
-  </si>
-  <si>
-    <t>Singing,Animation,Library Science</t>
-  </si>
-  <si>
-    <t>Abraham Barton</t>
-  </si>
-  <si>
-    <t>Animation,Copywriting,Zookeeping</t>
-  </si>
-  <si>
-    <t>Miss Gabriel Hand</t>
-  </si>
-  <si>
-    <t>Culinary Arts,3D Modeling,Green Building</t>
-  </si>
-  <si>
-    <t>Francis Lind III</t>
-  </si>
-  <si>
-    <t>Economics,Psychology,Legal Writing</t>
-  </si>
-  <si>
-    <t>Emile Considine IV</t>
-  </si>
-  <si>
-    <t>Meditation Instruction,Legal Research,Archiving</t>
-  </si>
-  <si>
-    <t>Deon Schoen</t>
-  </si>
-  <si>
-    <t>Accounting,Sociology,Curriculum Development</t>
-  </si>
-  <si>
-    <t>Theo Kautzer</t>
-  </si>
-  <si>
-    <t>Customer Service,UI/UX Design,Political Science</t>
-  </si>
-  <si>
-    <t>Candice Mayer</t>
-  </si>
-  <si>
-    <t>Health Coaching,Sustainability,Psychology</t>
-  </si>
-  <si>
-    <t>Mr. Lourie Fisher</t>
-  </si>
-  <si>
-    <t>Historical Research,Economics,UI/UX Design</t>
-  </si>
-  <si>
-    <t>Danial Kub II</t>
-  </si>
-  <si>
-    <t>Presentation Skills,Gardening,Acupuncture</t>
-  </si>
-  <si>
-    <t>Shari Little II</t>
-  </si>
-  <si>
-    <t>Content Creation,Physical Therapy,Level Design</t>
-  </si>
-  <si>
-    <t>Hester Runolfsson</t>
-  </si>
-  <si>
-    <t>Fitness Training,Teamwork,Creativity</t>
-  </si>
-  <si>
-    <t>Giselle Kulas</t>
-  </si>
-  <si>
-    <t>Negotiation Skills,UI/UX Design,Green Building</t>
-  </si>
-  <si>
-    <t>Amado Williamson</t>
-  </si>
-  <si>
-    <t>Photography,Web Design,Public Speaking</t>
-  </si>
-  <si>
-    <t>Perry Rath</t>
-  </si>
-  <si>
-    <t>Blockchain,Music Production,Baking</t>
-  </si>
-  <si>
-    <t>Mr. Hiedi Weber</t>
-  </si>
-  <si>
-    <t>Customer Service,Stress Management,Public Speaking</t>
-  </si>
-  <si>
-    <t>Elbert O'Conner</t>
-  </si>
-  <si>
-    <t>Video Editing,Environmental Conservation,Sociology</t>
-  </si>
-  <si>
-    <t>Claude Hessel</t>
-  </si>
-  <si>
-    <t>Cooking,Time Management,Alternative Medicine</t>
-  </si>
-  <si>
-    <t>Chasidy Gulgowski DDS</t>
-  </si>
-  <si>
-    <t>Photography,Social Work,Localization</t>
-  </si>
-  <si>
-    <t>Cliff Fadel</t>
-  </si>
-  <si>
-    <t>Digital Art,Videography,Game Development</t>
-  </si>
-  <si>
-    <t>Ivelisse Hilll</t>
-  </si>
-  <si>
-    <t>Counseling,Editing Skills,3D Modeling</t>
-  </si>
-  <si>
-    <t>Nona Champlin MD</t>
-  </si>
-  <si>
-    <t>Language Teaching,Waste Management,Culinary Arts</t>
-  </si>
-  <si>
-    <t>Branden McDermott</t>
-  </si>
-  <si>
-    <t>Research Skills,Virtual Reality (VR),Animal Care</t>
-  </si>
-  <si>
-    <t>Russell Koch PhD</t>
-  </si>
-  <si>
-    <t>Physical Therapy,Counseling,Copywriting</t>
-  </si>
-  <si>
-    <t>Quincy Schmidt</t>
-  </si>
-  <si>
-    <t>Pilates Instruction,Cooking,Herbal Medicine</t>
-  </si>
-  <si>
-    <t>Alva Rempel</t>
-  </si>
-  <si>
-    <t>Massage Therapy,Animation,Community Outreach</t>
-  </si>
-  <si>
-    <t>Mr. Jean Green</t>
-  </si>
-  <si>
-    <t>Content Creation,Tutoring,Financial Management</t>
-  </si>
-  <si>
-    <t>Mr. Abel Roob</t>
-  </si>
-  <si>
-    <t>Video Editing,Architecture,Level Design</t>
-  </si>
-  <si>
-    <t>Carri Schuster</t>
-  </si>
-  <si>
-    <t>Virtual Reality (VR),Research,Baking</t>
-  </si>
-  <si>
-    <t>Nestor Strosin</t>
-  </si>
-  <si>
-    <t>Historical Research,Organizational Skills,Content Creation</t>
-  </si>
-  <si>
-    <t>Floria Stark V</t>
-  </si>
-  <si>
-    <t>Psychology,Archiving,Renewable Energy</t>
-  </si>
-  <si>
-    <t>Lino Halvorson</t>
-  </si>
-  <si>
-    <t>Social Work,Landscaping,UI/UX Design</t>
-  </si>
-  <si>
-    <t>Cory Walker</t>
-  </si>
-  <si>
-    <t>Pet Grooming,Data Analysis,3D Modeling</t>
-  </si>
-  <si>
-    <t>Lee Bogan</t>
-  </si>
-  <si>
-    <t>Wildlife Conservation,Gaming,Communication</t>
-  </si>
-  <si>
-    <t>Dr. Angla Bayer</t>
-  </si>
-  <si>
-    <t>Social Work,Copywriting,Marketing Skills</t>
-  </si>
-  <si>
-    <t>Melaine Klein</t>
-  </si>
-  <si>
-    <t>Cooking,Legal Research,Marketing Skills</t>
-  </si>
-  <si>
-    <t>Kendall Hudson Jr.</t>
-  </si>
-  <si>
-    <t>Therapy,Scriptwriting,Zookeeping</t>
-  </si>
-  <si>
-    <t>Piper Kertzmann</t>
-  </si>
-  <si>
-    <t>Fitness Training,Accounting,Proofreading</t>
-  </si>
-  <si>
-    <t>Oscar Mertz I</t>
-  </si>
-  <si>
-    <t>Customer Service,Digital Art,Renewable Energy</t>
-  </si>
-  <si>
-    <t>Miss Elayne Kovacek</t>
-  </si>
-  <si>
-    <t>Presentation Skills,Time Management,Library Science</t>
-  </si>
-  <si>
-    <t>Rhonda Beahan</t>
-  </si>
-  <si>
-    <t>Writing Skills,Illustration,Political Science</t>
-  </si>
-  <si>
-    <t>Miss Terry MacGyver</t>
-  </si>
-  <si>
-    <t>Instructional Design,Sustainability,Legal Writing</t>
-  </si>
-  <si>
-    <t>Crista Breitenberg</t>
-  </si>
-  <si>
-    <t>Presentation Skills,Film Production,Library Science</t>
-  </si>
-  <si>
-    <t>Clinton Schmitt</t>
-  </si>
-  <si>
-    <t>Tutoring,Architecture,Sustainability</t>
-  </si>
-  <si>
-    <t>Shanice Pollich</t>
-  </si>
-  <si>
-    <t>Nonprofit Management,Time Management,Sociology</t>
-  </si>
-  <si>
-    <t>Jeneva Bayer</t>
-  </si>
-  <si>
-    <t>Podcasting,Fitness Training,Volunteer Management</t>
-  </si>
-  <si>
-    <t>Rob Blanda Jr.</t>
-  </si>
-  <si>
-    <t>Acting,Stress Management,Data Analysis</t>
-  </si>
-  <si>
-    <t>Ramon Zieme</t>
-  </si>
-  <si>
-    <t>Graphic Design,Interpersonal Skills,Communication</t>
-  </si>
-  <si>
-    <t>Emile Pfannerstill</t>
-  </si>
-  <si>
-    <t>Negotiation Skills,Massage Therapy,Recycling</t>
-  </si>
-  <si>
-    <t>Kiyoko Harris</t>
-  </si>
-  <si>
-    <t>Translation,Health Coaching,Sustainability</t>
-  </si>
-  <si>
-    <t>Len Keebler</t>
-  </si>
-  <si>
-    <t>Cooking,Film Production,Localization</t>
-  </si>
-  <si>
-    <t>Cheryll Langosh</t>
-  </si>
-  <si>
-    <t>Historical Research,Acting,Education</t>
-  </si>
-  <si>
-    <t>Heath Kuvalis</t>
-  </si>
-  <si>
-    <t>Gardening,Alternative Medicine,Marketing Skills</t>
-  </si>
-  <si>
-    <t>Sharie Maggio</t>
-  </si>
-  <si>
-    <t>Waste Management,Landscaping,Illustration</t>
-  </si>
-  <si>
-    <t>Rafael Jast</t>
-  </si>
-  <si>
-    <t>Photography,Legal Research,Veterinary Care</t>
-  </si>
-  <si>
-    <t>Willy Nitzsche PhD</t>
-  </si>
-  <si>
-    <t>Dog Training,Renewable Energy,3D Modeling</t>
-  </si>
-  <si>
-    <t>Mrs. Alecia Skiles</t>
-  </si>
-  <si>
-    <t>Event Planning,Tutoring,Physical Therapy</t>
-  </si>
-  <si>
-    <t>Theola Oberbrunner</t>
-  </si>
-  <si>
-    <t>Public Relations,Sociology,Dancing</t>
-  </si>
-  <si>
-    <t>Wilford Conn I</t>
-  </si>
-  <si>
-    <t>Augmented Reality (AR),Proofreading,Massage Therapy</t>
-  </si>
-  <si>
-    <t>Tracey Tremblay Jr.</t>
-  </si>
-  <si>
-    <t>Language Teaching,Voice Acting,Renewable Energy</t>
-  </si>
-  <si>
-    <t>Dillon Wyman</t>
-  </si>
-  <si>
-    <t>Cooking,Nutrition,Adaptability</t>
-  </si>
-  <si>
-    <t>Tod Pacocha</t>
-  </si>
-  <si>
-    <t>Podcasting,Attention to Detail,Interpersonal Skills</t>
-  </si>
-  <si>
-    <t>Herminia Waters</t>
-  </si>
-  <si>
-    <t>Architecture,Accounting,Illustration</t>
-  </si>
-  <si>
-    <t>Tanisha Bogisich</t>
-  </si>
-  <si>
-    <t>Project Management,Stress Management,Interpersonal Skills</t>
-  </si>
-  <si>
-    <t>Daryl Hilll Sr.</t>
-  </si>
-  <si>
-    <t>Pilates Instruction,Digital Art,Communication</t>
-  </si>
-  <si>
-    <t>Ms. Josef Parker</t>
-  </si>
-  <si>
-    <t>Hospitality Management,Writing Skills,Meditation Instruction</t>
-  </si>
-  <si>
-    <t>Buddy Hermann</t>
-  </si>
-  <si>
-    <t>Editing Skills,Volunteer Management,3D Modeling</t>
-  </si>
-  <si>
-    <t>Yung King II</t>
-  </si>
-  <si>
-    <t>Audio Editing,Cooking,Attention to Detail</t>
-  </si>
-  <si>
-    <t>Jeannine Price</t>
-  </si>
-  <si>
-    <t>Dog Training,Digital Art,Virtual Reality (VR)</t>
-  </si>
-  <si>
-    <t>Clark Bergstrom</t>
-  </si>
-  <si>
-    <t>Adaptability,Data Analysis,Gaming</t>
-  </si>
-  <si>
-    <t>Christy Legros</t>
-  </si>
-  <si>
-    <t>Event Planning,Project Management,Communication</t>
-  </si>
-  <si>
-    <t>Jacquie Morissette</t>
-  </si>
-  <si>
-    <t>Singing,Meditation Instruction,Emotional Intelligence</t>
-  </si>
-  <si>
-    <t>Tyree Gibson</t>
-  </si>
-  <si>
-    <t>UI/UX Design,Teamwork,Cryptocurrency</t>
-  </si>
-  <si>
-    <t>Breana Sanford Jr.</t>
-  </si>
-  <si>
-    <t>Pilates Instruction,Sales Skills,Herbal Medicine</t>
-  </si>
-  <si>
-    <t>Maynard Crist IV</t>
-  </si>
-  <si>
-    <t>Health Coaching,Translation,E-Learning</t>
-  </si>
-  <si>
-    <t>Elliott Crist</t>
-  </si>
-  <si>
-    <t>Project Management,Dancing,Volunteer Management</t>
-  </si>
-  <si>
-    <t>Coleen Shanahan</t>
-  </si>
-  <si>
-    <t>Architecture,Interior Design,Green Building</t>
-  </si>
-  <si>
-    <t>Kathrin Schamberger</t>
-  </si>
-  <si>
-    <t>Video Editing,Environmental Conservation,Counseling</t>
-  </si>
-  <si>
-    <t>Philomena Erdman</t>
-  </si>
-  <si>
-    <t>Fitness Training,Library Science,Green Building</t>
-  </si>
-  <si>
-    <t>Dane Daugherty</t>
-  </si>
-  <si>
-    <t>Language Teaching,Presentation Skills,Physical Therapy</t>
-  </si>
-  <si>
-    <t>Herminia Zboncak</t>
-  </si>
-  <si>
-    <t>Economics,UI/UX Design,Editing</t>
-  </si>
-  <si>
-    <t>Reid Gleichner II</t>
-  </si>
-  <si>
-    <t>E-Learning,Life Coaching,Acupuncture</t>
-  </si>
-  <si>
-    <t>Dina Littel</t>
-  </si>
-  <si>
-    <t>Health Coaching,Landscaping,Legal Research</t>
-  </si>
-  <si>
-    <t>Darwin Swaniawski</t>
-  </si>
-  <si>
-    <t>Stress Management,Physical Therapy,Political Science</t>
-  </si>
-  <si>
-    <t>Galen Gaylord</t>
-  </si>
-  <si>
-    <t>Singing,Education,Tax Preparation</t>
-  </si>
-  <si>
-    <t>Mrs. Tamiko Botsford</t>
-  </si>
-  <si>
-    <t>Podcasting,Personal Finance,Game Development</t>
-  </si>
-  <si>
-    <t>Sirena Marks</t>
-  </si>
-  <si>
-    <t>Data Analysis,Tax Preparation,Emotional Intelligence</t>
-  </si>
-  <si>
-    <t>Dr. Alishia Senger</t>
-  </si>
-  <si>
-    <t>Time Management,Singing,Baking</t>
-  </si>
-  <si>
-    <t>Miss Wyatt Durgan</t>
-  </si>
-  <si>
-    <t>Dog Training,Hospitality Management,Virtual Reality (VR)</t>
-  </si>
-  <si>
-    <t>Maxwell Kuphal</t>
-  </si>
-  <si>
-    <t>Physical Therapy,Community Outreach,Veterinary Care</t>
-  </si>
-  <si>
-    <t>Oralia Paucek DDS</t>
-  </si>
-  <si>
-    <t>Writing Skills,Acting,Herbal Medicine</t>
-  </si>
-  <si>
-    <t>Jordan Nicolas</t>
-  </si>
-  <si>
-    <t>Presentation Skills,Nutrition,Baking</t>
-  </si>
-  <si>
-    <t>Daniel Schmidt</t>
-  </si>
-  <si>
-    <t>Research Skills,Fitness Training,Curriculum Development</t>
-  </si>
-  <si>
-    <t>Tijuana Hilpert</t>
-  </si>
-  <si>
-    <t>Dog Training,Alternative Medicine,Tax Preparation</t>
-  </si>
-  <si>
-    <t>Rocco O'Kon</t>
-  </si>
-  <si>
-    <t>Content Creation,Translation,Architecture</t>
+    <t>Mitch Yundt MD</t>
+  </si>
+  <si>
+    <t>Event Planning,Audio Editing,Accounting</t>
+  </si>
+  <si>
+    <t>Harrison Batz</t>
+  </si>
+  <si>
+    <t>Historical Research,Translation,Sustainability</t>
+  </si>
+  <si>
+    <t>Mr. Jorge Wilderman</t>
+  </si>
+  <si>
+    <t>Event Planning,Voice Acting,Creativity</t>
+  </si>
+  <si>
+    <t>Winston Adams</t>
+  </si>
+  <si>
+    <t>Blockchain,Editing Skills,Research</t>
+  </si>
+  <si>
+    <t>Beatrice Russel II</t>
+  </si>
+  <si>
+    <t>Landscaping,Gardening,Problem Solving</t>
+  </si>
+  <si>
+    <t>Timothy Crist</t>
+  </si>
+  <si>
+    <t>Economics,Animation,Copywriting</t>
+  </si>
+  <si>
+    <t>Annamarie Feeney II</t>
+  </si>
+  <si>
+    <t>Pilates Instruction,Environmental Conservation,Singing</t>
+  </si>
+  <si>
+    <t>Cira VonRueden</t>
+  </si>
+  <si>
+    <t>Event Planning,Editing,Graphic Design</t>
+  </si>
+  <si>
+    <t>Fidel Daugherty II</t>
+  </si>
+  <si>
+    <t>Cryptocurrency,Teamwork,Game Design</t>
+  </si>
+  <si>
+    <t>Jaimie Stroman</t>
+  </si>
+  <si>
+    <t>Tutoring,Problem Solving,Veterinary Care</t>
+  </si>
+  <si>
+    <t>Newton Kulas DDS</t>
+  </si>
+  <si>
+    <t>Accounting,Videography,Conflict Resolution</t>
+  </si>
+  <si>
+    <t>Wm Lueilwitz</t>
+  </si>
+  <si>
+    <t>Blockchain,Dancing,Tax Preparation</t>
+  </si>
+  <si>
+    <t>Mrs. Penelope Heller</t>
+  </si>
+  <si>
+    <t>Instructional Design,Meditation Instruction,Animation</t>
+  </si>
+  <si>
+    <t>Jamel Bergstrom DDS</t>
+  </si>
+  <si>
+    <t>Architecture,Personal Finance,Emotional Intelligence</t>
+  </si>
+  <si>
+    <t>Mardell Kulas</t>
+  </si>
+  <si>
+    <t>Education,Virtual Reality (VR),Herbal Medicine</t>
+  </si>
+  <si>
+    <t>Dr. Stacey Abshire</t>
+  </si>
+  <si>
+    <t>Leadership,Sociology,Acupuncture</t>
+  </si>
+  <si>
+    <t>Mr. Fritz Lynch</t>
+  </si>
+  <si>
+    <t>Voice Acting,Project Management,Interior Design</t>
+  </si>
+  <si>
+    <t>Danuta Kub</t>
+  </si>
+  <si>
+    <t>Pilates Instruction,Augmented Reality (AR),Scriptwriting</t>
+  </si>
+  <si>
+    <t>Lewis Greenholt PhD</t>
+  </si>
+  <si>
+    <t>Event Planning,Web Design,Alternative Medicine</t>
+  </si>
+  <si>
+    <t>Mr. Zola Marks</t>
+  </si>
+  <si>
+    <t>Film Production,Green Building,Curriculum Development</t>
+  </si>
+  <si>
+    <t>Dr. Shelby Walter</t>
+  </si>
+  <si>
+    <t>Tutoring,Psychology,Acupuncture</t>
+  </si>
+  <si>
+    <t>Mr. Jonathon Haley</t>
+  </si>
+  <si>
+    <t>Data Analysis,Attention to Detail,Communication</t>
+  </si>
+  <si>
+    <t>Lawerence Friesen</t>
+  </si>
+  <si>
+    <t>Economics,Leadership,Teamwork</t>
+  </si>
+  <si>
+    <t>Donte Steuber</t>
+  </si>
+  <si>
+    <t>Podcasting,Social Work,Animal Care</t>
+  </si>
+  <si>
+    <t>Randi Wilkinson Sr.</t>
+  </si>
+  <si>
+    <t>Critical Thinking,Leadership,Psychology</t>
+  </si>
+  <si>
+    <t>Michelina Koelpin</t>
+  </si>
+  <si>
+    <t>Sociology,Teamwork,Zookeeping</t>
+  </si>
+  <si>
+    <t>Yuki Nikolaus I</t>
+  </si>
+  <si>
+    <t>Legal Research,Gardening,Music Production</t>
+  </si>
+  <si>
+    <t>Mitch Treutel</t>
+  </si>
+  <si>
+    <t>Social Work,E-Learning,Teamwork</t>
+  </si>
+  <si>
+    <t>Nancie Welch</t>
+  </si>
+  <si>
+    <t>Economics,Fitness Training,Virtual Reality (VR)</t>
+  </si>
+  <si>
+    <t>Chanel Hayes Sr.</t>
+  </si>
+  <si>
+    <t>Fitness Training,Alternative Medicine,3D Modeling</t>
+  </si>
+  <si>
+    <t>Leif Jacobson</t>
+  </si>
+  <si>
+    <t>Acting,Gaming,Game Development</t>
+  </si>
+  <si>
+    <t>Ms. Alexis Windler</t>
+  </si>
+  <si>
+    <t>Fitness Training,Web Design,Curriculum Development</t>
+  </si>
+  <si>
+    <t>Milford West DDS</t>
+  </si>
+  <si>
+    <t>Public Relations,UI/UX Design,Alternative Medicine</t>
+  </si>
+  <si>
+    <t>Leroy Blanda Jr.</t>
+  </si>
+  <si>
+    <t>Investment Analysis,Community Outreach,Gaming</t>
+  </si>
+  <si>
+    <t>Marcos Mann I</t>
+  </si>
+  <si>
+    <t>Customer Service,Animal Care,Gaming</t>
+  </si>
+  <si>
+    <t>Dr. Mitchell Boehm</t>
+  </si>
+  <si>
+    <t>Critical Thinking,Tutoring,Volunteer Management</t>
+  </si>
+  <si>
+    <t>Tandra Orn III</t>
+  </si>
+  <si>
+    <t>Social Work,Graphic Design,Emotional Intelligence</t>
+  </si>
+  <si>
+    <t>Caleb Hills IV</t>
+  </si>
+  <si>
+    <t>Screenwriting,Interpersonal Skills,Curriculum Development</t>
+  </si>
+  <si>
+    <t>Mr. Kieth Jast</t>
+  </si>
+  <si>
+    <t>Psychology,Baking,Curriculum Development</t>
+  </si>
+  <si>
+    <t>Soon Schumm</t>
+  </si>
+  <si>
+    <t>Translation,Time Management,Counseling</t>
+  </si>
+  <si>
+    <t>Franchesca Pouros</t>
+  </si>
+  <si>
+    <t>Social Work,Economics,Gaming</t>
+  </si>
+  <si>
+    <t>Mr. Olive Dibbert</t>
+  </si>
+  <si>
+    <t>Environmental Conservation,Yoga Instruction,Level Design</t>
+  </si>
+  <si>
+    <t>Roderick Thompson</t>
+  </si>
+  <si>
+    <t>Pilates Instruction,Public Relations,Massage Therapy</t>
+  </si>
+  <si>
+    <t>Randell Heidenreich</t>
+  </si>
+  <si>
+    <t>Hospitality Management,Copywriting,Emotional Intelligence</t>
+  </si>
+  <si>
+    <t>Daysi McCullough</t>
+  </si>
+  <si>
+    <t>Customer Service,Cooking,3D Modeling</t>
+  </si>
+  <si>
+    <t>Abe Leannon</t>
+  </si>
+  <si>
+    <t>Public Relations,Library Science,Research</t>
+  </si>
+  <si>
+    <t>Leonarda Gutmann DDS</t>
+  </si>
+  <si>
+    <t>Voice Acting,Attention to Detail,Curriculum Development</t>
+  </si>
+  <si>
+    <t>Joesph Satterfield</t>
+  </si>
+  <si>
+    <t>Time Management,Financial Management,Herbal Medicine</t>
+  </si>
+  <si>
+    <t>Raeann Huels IV</t>
+  </si>
+  <si>
+    <t>Presentation Skills,Proofreading,Financial Management</t>
+  </si>
+  <si>
+    <t>Murray Hudson III</t>
+  </si>
+  <si>
+    <t>Environmental Conservation,Stress Management,Tax Preparation</t>
+  </si>
+  <si>
+    <t>Ray Howell</t>
+  </si>
+  <si>
+    <t>Alternative Medicine,Investment Analysis,Screenwriting</t>
+  </si>
+  <si>
+    <t>Adolfo Swaniawski DVM</t>
+  </si>
+  <si>
+    <t>Physical Therapy,Animal Care,Strategic Planning</t>
+  </si>
+  <si>
+    <t>Benjamin Stark</t>
+  </si>
+  <si>
+    <t>Historical Research,Stress Management,Animal Care</t>
+  </si>
+  <si>
+    <t>Randell Russel MD</t>
+  </si>
+  <si>
+    <t>Sustainability,3D Modeling,Financial Management</t>
+  </si>
+  <si>
+    <t>Shaun Nolan</t>
+  </si>
+  <si>
+    <t>Organizational Skills,Public Speaking,Political Science</t>
+  </si>
+  <si>
+    <t>Dr. Darwin Powlowski</t>
+  </si>
+  <si>
+    <t>Economics,Culinary Arts,Adaptability</t>
+  </si>
+  <si>
+    <t>Rashad Runte</t>
+  </si>
+  <si>
+    <t>Legal Research,Volunteer Management,Gaming</t>
+  </si>
+  <si>
+    <t>Kera Lowe DDS</t>
+  </si>
+  <si>
+    <t>Film Production,Conflict Resolution,Public Speaking</t>
+  </si>
+  <si>
+    <t>Corazon Hickle II</t>
+  </si>
+  <si>
+    <t>Proofreading,Curriculum Development,Veterinary Care</t>
+  </si>
+  <si>
+    <t>Calvin Labadie</t>
+  </si>
+  <si>
+    <t>Landscaping,Sales Skills,Legal Writing</t>
+  </si>
+  <si>
+    <t>Lowell Hodkiewicz</t>
+  </si>
+  <si>
+    <t>Critical Thinking,Health Coaching,Localization</t>
+  </si>
+  <si>
+    <t>Nikia Veum V</t>
+  </si>
+  <si>
+    <t>Nonprofit Management,Animal Care,Acupuncture</t>
+  </si>
+  <si>
+    <t>Vivien Parker</t>
+  </si>
+  <si>
+    <t>Research Skills,Video Editing,Accounting</t>
+  </si>
+  <si>
+    <t>Enoch Wolf I</t>
+  </si>
+  <si>
+    <t>Videography,Data Analysis,3D Modeling</t>
+  </si>
+  <si>
+    <t>Dania Gerhold</t>
+  </si>
+  <si>
+    <t>Nonprofit Management,Adaptability,Life Coaching</t>
+  </si>
+  <si>
+    <t>Damian Koelpin</t>
+  </si>
+  <si>
+    <t>Social Work,Singing,Tax Preparation</t>
+  </si>
+  <si>
+    <t>Ivette Cormier</t>
+  </si>
+  <si>
+    <t>Dog Training,Critical Thinking,Environmental Conservation</t>
+  </si>
+  <si>
+    <t>Ramona Murazik</t>
+  </si>
+  <si>
+    <t>Web Design,Culinary Arts,Acupuncture</t>
+  </si>
+  <si>
+    <t>Mrs. Iola Kub</t>
+  </si>
+  <si>
+    <t>Dog Training,Videography,Dancing</t>
+  </si>
+  <si>
+    <t>Carla Hudson</t>
+  </si>
+  <si>
+    <t>Physical Therapy,Strategic Planning,Veterinary Care</t>
+  </si>
+  <si>
+    <t>Elba Lynch</t>
+  </si>
+  <si>
+    <t>Psychology,Zookeeping,Yoga Instruction</t>
+  </si>
+  <si>
+    <t>Hal Bechtelar</t>
+  </si>
+  <si>
+    <t>Editing Skills,Dancing,Graphic Design</t>
+  </si>
+  <si>
+    <t>Shaniqua Wolff</t>
+  </si>
+  <si>
+    <t>Nonprofit Management,Editing Skills,Personal Finance</t>
+  </si>
+  <si>
+    <t>Mr. Jarred Von</t>
+  </si>
+  <si>
+    <t>Environmental Conservation,Accounting,Public Speaking</t>
+  </si>
+  <si>
+    <t>Jules Sipes</t>
+  </si>
+  <si>
+    <t>Social Work,Sociology,Gardening</t>
+  </si>
+  <si>
+    <t>Mr. Antonia Yost</t>
+  </si>
+  <si>
+    <t>Film Production,Tutoring,Physical Therapy</t>
+  </si>
+  <si>
+    <t>Nicholle Buckridge</t>
+  </si>
+  <si>
+    <t>Audio Editing,Fitness Training,Communication</t>
+  </si>
+  <si>
+    <t>Ms. Wilford McCullough</t>
+  </si>
+  <si>
+    <t>Accounting,Massage Therapy,Game Development</t>
+  </si>
+  <si>
+    <t>Dr. Regena Farrell</t>
+  </si>
+  <si>
+    <t>Organizational Skills,Veterinary Care,Curriculum Development</t>
+  </si>
+  <si>
+    <t>Hye Ruecker</t>
+  </si>
+  <si>
+    <t>Acting,Animal Care,Personal Finance</t>
+  </si>
+  <si>
+    <t>Jimmy Fay</t>
+  </si>
+  <si>
+    <t>Instructional Design,Education,Cryptocurrency</t>
+  </si>
+  <si>
+    <t>David Reynolds</t>
+  </si>
+  <si>
+    <t>Therapy,Environmental Conservation,Acupuncture</t>
+  </si>
+  <si>
+    <t>Allen Jakubowski</t>
+  </si>
+  <si>
+    <t>Podcasting,Nutrition,Negotiation Skills</t>
+  </si>
+  <si>
+    <t>Sterling Mosciski</t>
+  </si>
+  <si>
+    <t>Massage Therapy,Archiving,Acupuncture</t>
+  </si>
+  <si>
+    <t>Randal Christiansen</t>
+  </si>
+  <si>
+    <t>Language Teaching,Project Management,Herbal Medicine</t>
+  </si>
+  <si>
+    <t>Shiloh Homenick</t>
+  </si>
+  <si>
+    <t>Augmented Reality (AR),Digital Art,Research</t>
+  </si>
+  <si>
+    <t>Miss Joana Nolan</t>
+  </si>
+  <si>
+    <t>Public Relations,Culinary Arts,3D Modeling</t>
+  </si>
+  <si>
+    <t>Mai Roberts</t>
+  </si>
+  <si>
+    <t>Leadership,Sociology,Marketing Skills</t>
+  </si>
+  <si>
+    <t>Tari Stoltenberg</t>
+  </si>
+  <si>
+    <t>Nonprofit Management,Problem Solving,Library Science</t>
+  </si>
+  <si>
+    <t>Adolph Mante</t>
+  </si>
+  <si>
+    <t>Translation,Health Coaching,Proofreading</t>
+  </si>
+  <si>
+    <t>Dominique Wolf DDS</t>
+  </si>
+  <si>
+    <t>Voice Acting,Web Design,Acting</t>
+  </si>
+  <si>
+    <t>Lauren Bartell</t>
+  </si>
+  <si>
+    <t>Writing Skills,Wildlife Conservation,Animation</t>
+  </si>
+  <si>
+    <t>Candis Klocko</t>
+  </si>
+  <si>
+    <t>Personal Training,Blockchain,Attention to Detail</t>
+  </si>
+  <si>
+    <t>Rafael Keeling</t>
+  </si>
+  <si>
+    <t>Nonprofit Management,Fashion Design,Alternative Medicine</t>
+  </si>
+  <si>
+    <t>John Kozey</t>
+  </si>
+  <si>
+    <t>Hospitality Management,Sociology,Political Science</t>
+  </si>
+  <si>
+    <t>Miss Werner Shanahan</t>
+  </si>
+  <si>
+    <t>Dog Training,Public Relations,Financial Management</t>
+  </si>
+  <si>
+    <t>Dr. Carole Reichert</t>
+  </si>
+  <si>
+    <t>Dog Training,Critical Thinking,Legal Writing</t>
+  </si>
+  <si>
+    <t>Wilson Rice</t>
+  </si>
+  <si>
+    <t>Leadership,Editing Skills,Gaming</t>
+  </si>
+  <si>
+    <t>Dr. Brianna Gerhold</t>
+  </si>
+  <si>
+    <t>Health Coaching,Blockchain,Marketing Skills</t>
+  </si>
+  <si>
+    <t>Ms. Jacob Cummings</t>
+  </si>
+  <si>
+    <t>Physical Therapy,Library Science,Community Outreach</t>
   </si>
 </sst>
 </file>
